--- a/background information/SRA/SRA_metadata_acc.xlsx
+++ b/background information/SRA/SRA_metadata_acc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr date1904="1" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IBG-4\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B88FA7-02B8-4EBB-BF14-682562CB1C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E6BB4E-BF3F-49B0-B11D-CBCD88EC3E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2985" yWindow="2985" windowWidth="16200" windowHeight="9360" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contact Info and Instructions" sheetId="3" r:id="rId1"/>
@@ -1742,6 +1742,10 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="62"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="62" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1754,9 +1758,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1766,91 +1767,90 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="79">
-    <cellStyle name="40% - Accent1" xfId="3" builtinId="31"/>
-    <cellStyle name="Accent1" xfId="1" builtinId="29"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="62" builtinId="8"/>
+    <cellStyle name="40 % - Akzent1" xfId="3" builtinId="31"/>
+    <cellStyle name="Akzent1" xfId="1" builtinId="29"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Link" xfId="62" builtinId="8"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2282,74 +2282,74 @@
   </sheetPr>
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A14" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6328125" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="63.625" style="19" customWidth="1"/>
-    <col min="3" max="3" width="23.875" style="19" customWidth="1"/>
-    <col min="4" max="4" width="24.125" style="19" customWidth="1"/>
-    <col min="5" max="5" width="20.625" style="16" customWidth="1"/>
-    <col min="6" max="6" width="8.625" style="16"/>
-    <col min="7" max="16384" width="8.625" style="19"/>
+    <col min="1" max="1" width="3.6328125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="63.6328125" style="19" customWidth="1"/>
+    <col min="3" max="3" width="23.90625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="24.08984375" style="19" customWidth="1"/>
+    <col min="5" max="5" width="20.6328125" style="16" customWidth="1"/>
+    <col min="6" max="6" width="8.6328125" style="16"/>
+    <col min="7" max="16384" width="8.6328125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="15.75" thickBot="1"/>
+    <row r="1" spans="2:12" ht="14.4" thickBot="1"/>
     <row r="2" spans="2:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="B2" s="22" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="15.75" customHeight="1">
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="46" t="s">
         <v>197</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
     </row>
     <row r="4" spans="2:12" ht="15.75" customHeight="1">
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="46" t="s">
         <v>198</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
     </row>
     <row r="5" spans="2:12" ht="15.75" customHeight="1">
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="47" t="s">
         <v>199</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
     </row>
     <row r="6" spans="2:12" ht="15.75" customHeight="1">
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
     </row>
     <row r="7" spans="2:12" ht="20.25" customHeight="1">
       <c r="B7" s="23" t="s">
@@ -2361,40 +2361,40 @@
       <c r="F7" s="25"/>
       <c r="G7" s="24"/>
     </row>
-    <row r="8" spans="2:12" s="26" customFormat="1" ht="33">
+    <row r="8" spans="2:12" s="26" customFormat="1" ht="34.200000000000003">
       <c r="B8" s="27" t="s">
         <v>205</v>
       </c>
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
     </row>
-    <row r="9" spans="2:12" s="26" customFormat="1" ht="82.5">
+    <row r="9" spans="2:12" s="26" customFormat="1" ht="68.400000000000006">
       <c r="B9" s="27" t="s">
         <v>208</v>
       </c>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
     </row>
-    <row r="10" spans="2:12" s="26" customFormat="1" ht="99">
+    <row r="10" spans="2:12" s="26" customFormat="1" ht="102">
       <c r="B10" s="27" t="s">
         <v>209</v>
       </c>
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
     </row>
-    <row r="11" spans="2:12" s="26" customFormat="1" ht="33">
+    <row r="11" spans="2:12" s="26" customFormat="1" ht="34.200000000000003">
       <c r="B11" s="27" t="s">
         <v>206</v>
       </c>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
     </row>
-    <row r="12" spans="2:12" ht="16.5">
+    <row r="12" spans="2:12" ht="16.8">
       <c r="B12" s="27" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="13" spans="2:12" s="26" customFormat="1" ht="16.5">
+    <row r="13" spans="2:12" s="26" customFormat="1" ht="16.8">
       <c r="B13" s="27"/>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
@@ -2420,15 +2420,15 @@
       </c>
     </row>
     <row r="17" spans="2:8" ht="37.5" customHeight="1">
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
     </row>
     <row r="18" spans="2:8" ht="15.75" customHeight="1"/>
     <row r="19" spans="2:8" ht="15.75" customHeight="1"/>
@@ -2460,29 +2460,29 @@
       <c r="B37" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="C37" s="42" t="s">
+      <c r="C37" s="44" t="s">
         <v>202</v>
       </c>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="43"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1">
       <c r="B38" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="C38" s="42" t="s">
+      <c r="C38" s="44" t="s">
         <v>203</v>
       </c>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="43"/>
-    </row>
-    <row r="41" spans="1:8" ht="15.75">
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+    </row>
+    <row r="41" spans="1:8" ht="16.2">
       <c r="B41" s="23" t="s">
         <v>192</v>
       </c>
@@ -2492,35 +2492,35 @@
       <c r="F41" s="25"/>
       <c r="G41" s="24"/>
     </row>
-    <row r="45" spans="1:8" ht="16.5">
+    <row r="45" spans="1:8" ht="16.8">
       <c r="A45" s="28"/>
       <c r="B45" s="27"/>
     </row>
-    <row r="46" spans="1:8" ht="16.5">
+    <row r="46" spans="1:8" ht="16.8">
       <c r="A46" s="28"/>
       <c r="B46" s="27"/>
     </row>
-    <row r="47" spans="1:8" ht="16.5">
+    <row r="47" spans="1:8" ht="16.8">
       <c r="A47" s="28"/>
       <c r="B47" s="27"/>
     </row>
-    <row r="48" spans="1:8" ht="16.5">
+    <row r="48" spans="1:8" ht="16.8">
       <c r="A48" s="28"/>
       <c r="B48" s="27"/>
     </row>
-    <row r="49" spans="1:2" ht="16.5">
+    <row r="49" spans="1:2" ht="16.8">
       <c r="A49" s="28"/>
       <c r="B49" s="27"/>
     </row>
-    <row r="50" spans="1:2" ht="16.5">
+    <row r="50" spans="1:2" ht="16.8">
       <c r="A50" s="28"/>
       <c r="B50" s="27"/>
     </row>
-    <row r="51" spans="1:2" ht="16.5">
+    <row r="51" spans="1:2" ht="16.8">
       <c r="A51" s="28"/>
       <c r="B51" s="27"/>
     </row>
-    <row r="52" spans="1:2" ht="16.5">
+    <row r="52" spans="1:2" ht="16.8">
       <c r="A52" s="28"/>
       <c r="B52" s="27"/>
     </row>
@@ -2553,26 +2553,26 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2"/>
+      <selection pane="topRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6328125" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="18.625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="20.625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="18.625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="18.6328125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="20.6328125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="18.6328125" style="10" customWidth="1"/>
     <col min="4" max="4" width="28" style="12" customWidth="1"/>
     <col min="5" max="5" width="27" style="12" customWidth="1"/>
-    <col min="6" max="6" width="28.875" style="12" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="12" customWidth="1"/>
+    <col min="6" max="6" width="28.90625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="14.453125" style="12" customWidth="1"/>
     <col min="8" max="8" width="22" style="13" customWidth="1"/>
-    <col min="9" max="9" width="18.75" style="13" customWidth="1"/>
-    <col min="10" max="10" width="16.625" style="12" customWidth="1"/>
-    <col min="11" max="11" width="11.375" style="13" customWidth="1"/>
-    <col min="12" max="12" width="49.875" style="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="10.125" style="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.625" style="14" customWidth="1"/>
-    <col min="17" max="16384" width="8.625" style="14"/>
+    <col min="9" max="9" width="18.7265625" style="13" customWidth="1"/>
+    <col min="10" max="10" width="16.6328125" style="12" customWidth="1"/>
+    <col min="11" max="11" width="11.36328125" style="13" customWidth="1"/>
+    <col min="12" max="12" width="49.90625" style="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="10.08984375" style="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.6328125" style="14" customWidth="1"/>
+    <col min="17" max="16384" width="8.6328125" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="7" customFormat="1" ht="50.1" customHeight="1">
@@ -5240,43 +5240,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6328125" defaultRowHeight="12.6"/>
   <cols>
-    <col min="1" max="1" width="35.625" style="33" customWidth="1"/>
-    <col min="2" max="2" width="25.625" style="34" customWidth="1"/>
-    <col min="3" max="3" width="26.125" style="34" customWidth="1"/>
-    <col min="4" max="4" width="18.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="21.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.5" style="2" customWidth="1"/>
-    <col min="9" max="9" width="25.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="21.125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="13.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.625" style="2"/>
+    <col min="1" max="1" width="35.6328125" style="33" customWidth="1"/>
+    <col min="2" max="2" width="25.6328125" style="34" customWidth="1"/>
+    <col min="3" max="3" width="26.08984375" style="34" customWidth="1"/>
+    <col min="4" max="4" width="18.36328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.6328125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.08984375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.6328125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.453125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="25.453125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="21.08984375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.6328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13.5" thickBot="1">
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-    </row>
-    <row r="2" spans="1:9" ht="13.5" thickBot="1">
+    <row r="1" spans="1:9" ht="13.2" thickBot="1">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+    </row>
+    <row r="2" spans="1:9" ht="13.2" thickBot="1">
       <c r="A2" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -5288,172 +5288,172 @@
       <c r="A3" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="47"/>
+      <c r="C3" s="49"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="47"/>
+      <c r="C4" s="49"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1">
       <c r="A5" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="47"/>
+      <c r="C5" s="49"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="C6" s="47"/>
+      <c r="C6" s="49"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="C7" s="47"/>
+      <c r="C7" s="49"/>
     </row>
     <row r="8" spans="1:9" ht="25.5" customHeight="1">
       <c r="A8" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="C8" s="47"/>
+      <c r="C8" s="49"/>
     </row>
     <row r="9" spans="1:9" ht="25.5" customHeight="1">
       <c r="A9" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="C9" s="47"/>
+      <c r="C9" s="49"/>
     </row>
     <row r="10" spans="1:9" ht="25.5" customHeight="1">
       <c r="A10" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="47"/>
+      <c r="C10" s="49"/>
     </row>
     <row r="11" spans="1:9" ht="25.5" customHeight="1">
       <c r="A11" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="C11" s="47"/>
+      <c r="C11" s="49"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="C12" s="47"/>
+      <c r="C12" s="49"/>
     </row>
     <row r="13" spans="1:9" ht="25.5" customHeight="1">
       <c r="A13" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="49" t="s">
         <v>120</v>
       </c>
-      <c r="C13" s="47"/>
+      <c r="C13" s="49"/>
     </row>
     <row r="14" spans="1:9" ht="25.5" customHeight="1">
       <c r="A14" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="49" t="s">
         <v>121</v>
       </c>
-      <c r="C14" s="47"/>
+      <c r="C14" s="49"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="47"/>
+      <c r="C15" s="49"/>
     </row>
     <row r="16" spans="1:9" ht="32.25" customHeight="1">
       <c r="A16" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="49" t="s">
         <v>123</v>
       </c>
-      <c r="C16" s="47"/>
+      <c r="C16" s="49"/>
     </row>
     <row r="17" spans="1:9" ht="38.25" customHeight="1">
       <c r="A17" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="C17" s="47"/>
+      <c r="C17" s="49"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="C18" s="47"/>
+      <c r="C18" s="49"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="C19" s="47"/>
+      <c r="C19" s="49"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="C20" s="47"/>
+      <c r="C20" s="49"/>
     </row>
     <row r="21" spans="1:9" s="1" customFormat="1">
       <c r="A21" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="C21" s="47"/>
+      <c r="C21" s="49"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -5465,28 +5465,28 @@
       <c r="A22" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="47" t="s">
+      <c r="B22" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="C22" s="47"/>
+      <c r="C22" s="49"/>
     </row>
     <row r="23" spans="1:9" ht="25.5" customHeight="1">
       <c r="A23" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="C23" s="47"/>
+      <c r="C23" s="49"/>
     </row>
     <row r="24" spans="1:9" ht="25.5" customHeight="1">
       <c r="A24" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="47" t="s">
+      <c r="B24" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="C24" s="47"/>
+      <c r="C24" s="49"/>
     </row>
     <row r="25" spans="1:9" ht="25.5" customHeight="1">
       <c r="A25" s="2" t="s">
@@ -5590,11 +5590,11 @@
       <c r="A37" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B37" s="51" t="s">
+      <c r="B37" s="52" t="s">
         <v>284</v>
       </c>
-      <c r="C37" s="51"/>
-      <c r="D37" s="52"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="42"/>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2" t="s">
@@ -5607,19 +5607,19 @@
       <c r="A39" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B39" s="52" t="s">
+      <c r="B39" s="42" t="s">
         <v>286</v>
       </c>
-      <c r="C39" s="52"/>
-      <c r="D39" s="52"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1">
       <c r="A40" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="B40" s="52"/>
-      <c r="C40" s="52"/>
-      <c r="D40" s="52"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2" t="s">
@@ -5632,85 +5632,85 @@
       <c r="A42" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="B42" s="51" t="s">
+      <c r="B42" s="52" t="s">
         <v>290</v>
       </c>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="52"/>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="47" t="s">
+      <c r="B43" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="C43" s="47"/>
-    </row>
-    <row r="44" spans="1:4" ht="13.5" thickBot="1">
-      <c r="B44" s="47"/>
-      <c r="C44" s="47"/>
-    </row>
-    <row r="45" spans="1:4" ht="13.5" thickBot="1">
+      <c r="C43" s="49"/>
+    </row>
+    <row r="44" spans="1:4" ht="13.2" thickBot="1">
+      <c r="B44" s="49"/>
+      <c r="C44" s="49"/>
+    </row>
+    <row r="45" spans="1:4" ht="13.2" thickBot="1">
       <c r="A45" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="49"/>
-      <c r="C45" s="50"/>
+      <c r="B45" s="50"/>
+      <c r="C45" s="51"/>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="B46" s="47" t="s">
+      <c r="B46" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="C46" s="47"/>
+      <c r="C46" s="49"/>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="B47" s="47" t="s">
+      <c r="B47" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="C47" s="47"/>
+      <c r="C47" s="49"/>
     </row>
     <row r="48" spans="1:4" ht="25.5" customHeight="1">
       <c r="A48" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B48" s="47" t="s">
+      <c r="B48" s="49" t="s">
         <v>135</v>
       </c>
-      <c r="C48" s="47"/>
+      <c r="C48" s="49"/>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="B49" s="47" t="s">
+      <c r="B49" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="C49" s="47"/>
+      <c r="C49" s="49"/>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="B50" s="47" t="s">
+      <c r="B50" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="C50" s="47"/>
+      <c r="C50" s="49"/>
     </row>
     <row r="51" spans="1:3" ht="15" customHeight="1">
       <c r="A51" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="B51" s="47" t="s">
+      <c r="B51" s="49" t="s">
         <v>138</v>
       </c>
-      <c r="C51" s="47"/>
+      <c r="C51" s="49"/>
     </row>
     <row r="52" spans="1:3" ht="15" customHeight="1">
       <c r="A52" s="2" t="s">
@@ -5726,264 +5726,264 @@
       <c r="A54" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="B54" s="47" t="s">
+      <c r="B54" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="C54" s="47"/>
-    </row>
-    <row r="55" spans="1:3" ht="13.5" thickBot="1">
-      <c r="B55" s="47"/>
-      <c r="C55" s="47"/>
-    </row>
-    <row r="56" spans="1:3" ht="13.5" thickBot="1">
+      <c r="C54" s="49"/>
+    </row>
+    <row r="55" spans="1:3" ht="13.2" thickBot="1">
+      <c r="B55" s="49"/>
+      <c r="C55" s="49"/>
+    </row>
+    <row r="56" spans="1:3" ht="13.2" thickBot="1">
       <c r="A56" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B56" s="48"/>
-      <c r="C56" s="47"/>
+      <c r="B56" s="53"/>
+      <c r="C56" s="49"/>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="B57" s="47" t="s">
+      <c r="B57" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="C57" s="47"/>
+      <c r="C57" s="49"/>
     </row>
     <row r="58" spans="1:3" ht="25.5" customHeight="1">
       <c r="A58" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="B58" s="47" t="s">
+      <c r="B58" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="C58" s="47"/>
+      <c r="C58" s="49"/>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="B59" s="47" t="s">
+      <c r="B59" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="C59" s="47"/>
+      <c r="C59" s="49"/>
     </row>
     <row r="60" spans="1:3" ht="25.5" customHeight="1">
       <c r="A60" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="B60" s="47" t="s">
+      <c r="B60" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="C60" s="47"/>
+      <c r="C60" s="49"/>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="B61" s="47" t="s">
+      <c r="B61" s="49" t="s">
         <v>144</v>
       </c>
-      <c r="C61" s="47"/>
+      <c r="C61" s="49"/>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="B62" s="47" t="s">
+      <c r="B62" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="C62" s="47"/>
+      <c r="C62" s="49"/>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="B63" s="47" t="s">
+      <c r="B63" s="49" t="s">
         <v>146</v>
       </c>
-      <c r="C63" s="47"/>
+      <c r="C63" s="49"/>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="B64" s="47" t="s">
+      <c r="B64" s="49" t="s">
         <v>147</v>
       </c>
-      <c r="C64" s="47"/>
+      <c r="C64" s="49"/>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="B65" s="47" t="s">
+      <c r="B65" s="49" t="s">
         <v>148</v>
       </c>
-      <c r="C65" s="47"/>
+      <c r="C65" s="49"/>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="B66" s="47" t="s">
+      <c r="B66" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="C66" s="47"/>
+      <c r="C66" s="49"/>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="B67" s="47" t="s">
+      <c r="B67" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="C67" s="47"/>
+      <c r="C67" s="49"/>
     </row>
     <row r="68" spans="1:3" ht="38.25" customHeight="1">
       <c r="A68" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="B68" s="47" t="s">
+      <c r="B68" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="C68" s="47"/>
+      <c r="C68" s="49"/>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="B69" s="47" t="s">
+      <c r="B69" s="49" t="s">
         <v>152</v>
       </c>
-      <c r="C69" s="47"/>
+      <c r="C69" s="49"/>
     </row>
     <row r="70" spans="1:3" ht="25.5" customHeight="1">
       <c r="A70" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="B70" s="47" t="s">
+      <c r="B70" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="C70" s="47"/>
+      <c r="C70" s="49"/>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="B71" s="47" t="s">
+      <c r="B71" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="C71" s="47"/>
+      <c r="C71" s="49"/>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="B72" s="47" t="s">
+      <c r="B72" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="C72" s="47"/>
+      <c r="C72" s="49"/>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="B73" s="47" t="s">
+      <c r="B73" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="C73" s="47"/>
+      <c r="C73" s="49"/>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="B74" s="47" t="s">
+      <c r="B74" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="C74" s="47"/>
+      <c r="C74" s="49"/>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="B75" s="47" t="s">
+      <c r="B75" s="49" t="s">
         <v>158</v>
       </c>
-      <c r="C75" s="47"/>
+      <c r="C75" s="49"/>
     </row>
     <row r="76" spans="1:3" ht="25.5" customHeight="1">
       <c r="A76" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="B76" s="47" t="s">
+      <c r="B76" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="C76" s="47"/>
+      <c r="C76" s="49"/>
     </row>
     <row r="77" spans="1:3" ht="28.5" customHeight="1">
       <c r="A77" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="B77" s="47" t="s">
+      <c r="B77" s="49" t="s">
         <v>160</v>
       </c>
-      <c r="C77" s="47"/>
+      <c r="C77" s="49"/>
     </row>
     <row r="78" spans="1:3" ht="28.5" customHeight="1">
       <c r="A78" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="B78" s="47" t="s">
+      <c r="B78" s="49" t="s">
         <v>161</v>
       </c>
-      <c r="C78" s="47"/>
+      <c r="C78" s="49"/>
     </row>
     <row r="79" spans="1:3" ht="28.5" customHeight="1">
       <c r="A79" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="B79" s="47" t="s">
+      <c r="B79" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="C79" s="47"/>
+      <c r="C79" s="49"/>
     </row>
     <row r="80" spans="1:3" ht="28.5" customHeight="1">
       <c r="A80" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="B80" s="47" t="s">
+      <c r="B80" s="49" t="s">
         <v>163</v>
       </c>
-      <c r="C80" s="47"/>
+      <c r="C80" s="49"/>
     </row>
     <row r="81" spans="1:19" ht="28.5" customHeight="1">
       <c r="A81" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="B81" s="47" t="s">
+      <c r="B81" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="C81" s="47"/>
+      <c r="C81" s="49"/>
     </row>
     <row r="82" spans="1:19" ht="28.5" customHeight="1">
       <c r="A82" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="B82" s="47" t="s">
+      <c r="B82" s="49" t="s">
         <v>165</v>
       </c>
-      <c r="C82" s="47"/>
+      <c r="C82" s="49"/>
     </row>
     <row r="83" spans="1:19">
       <c r="A83" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B83" s="47" t="s">
+      <c r="B83" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="C83" s="47"/>
+      <c r="C83" s="49"/>
     </row>
     <row r="84" spans="1:19">
       <c r="A84" s="2" t="s">
@@ -6029,16 +6029,16 @@
         <v>224</v>
       </c>
     </row>
-    <row r="90" spans="1:19" ht="13.5" thickBot="1">
+    <row r="90" spans="1:19" ht="13.2" thickBot="1">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
     </row>
-    <row r="91" spans="1:19" ht="13.5" thickBot="1">
+    <row r="91" spans="1:19" ht="13.2" thickBot="1">
       <c r="A91" s="17" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="92" spans="1:19">
+    <row r="92" spans="1:19" ht="13.2">
       <c r="A92" s="35" t="s">
         <v>177</v>
       </c>
@@ -6095,7 +6095,7 @@
       </c>
       <c r="S92" s="41"/>
     </row>
-    <row r="93" spans="1:19">
+    <row r="93" spans="1:19" ht="13.2">
       <c r="A93" s="35" t="s">
         <v>11</v>
       </c>
@@ -6129,7 +6129,7 @@
       <c r="K93" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="L93" s="52" t="s">
+      <c r="L93" s="42" t="s">
         <v>250</v>
       </c>
       <c r="M93" s="2" t="s">
@@ -6152,7 +6152,7 @@
       </c>
       <c r="S93" s="40"/>
     </row>
-    <row r="94" spans="1:19">
+    <row r="94" spans="1:19" ht="13.2">
       <c r="A94" s="33" t="s">
         <v>259</v>
       </c>
@@ -6180,7 +6180,7 @@
       <c r="K94" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="L94" s="52" t="s">
+      <c r="L94" s="42" t="s">
         <v>252</v>
       </c>
       <c r="O94" s="2" t="s">
@@ -6188,7 +6188,7 @@
       </c>
       <c r="S94" s="40"/>
     </row>
-    <row r="95" spans="1:19">
+    <row r="95" spans="1:19" ht="13.2">
       <c r="A95" s="33" t="s">
         <v>102</v>
       </c>
@@ -6213,10 +6213,10 @@
       <c r="J95" s="37" t="s">
         <v>213</v>
       </c>
-      <c r="K95" s="52" t="s">
+      <c r="K95" s="42" t="s">
         <v>253</v>
       </c>
-      <c r="L95" s="52" t="s">
+      <c r="L95" s="42" t="s">
         <v>251</v>
       </c>
       <c r="O95" s="2" t="s">
@@ -6246,7 +6246,7 @@
       <c r="I96" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="K96" s="52"/>
+      <c r="K96" s="42"/>
       <c r="L96" s="2" t="s">
         <v>292</v>
       </c>
@@ -6273,9 +6273,9 @@
       <c r="I97" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="K97" s="52"/>
-    </row>
-    <row r="98" spans="1:11">
+      <c r="K97" s="42"/>
+    </row>
+    <row r="98" spans="1:11" ht="13.2">
       <c r="A98" s="33" t="s">
         <v>261</v>
       </c>
@@ -6299,7 +6299,7 @@
       </c>
       <c r="K98" s="38"/>
     </row>
-    <row r="99" spans="1:11" ht="15">
+    <row r="99" spans="1:11" ht="14.4">
       <c r="A99" s="2" t="s">
         <v>263</v>
       </c>
@@ -6309,7 +6309,7 @@
       <c r="E99" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G99" s="53" t="s">
+      <c r="G99" s="43" t="s">
         <v>293</v>
       </c>
       <c r="H99" t="s">
@@ -6440,24 +6440,39 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
@@ -6472,39 +6487,24 @@
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
